--- a/data/long_bre/P23_7-Estudios-long_bre.xlsx
+++ b/data/long_bre/P23_7-Estudios-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>-8,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-22,09%</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-26,87%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25,16%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 5,16</t>
+          <t>-33,93; 4,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 8,16</t>
+          <t>-5,99; 7,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-53,73; 26,07</t>
+          <t>-5,89; 16,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 61,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-64,89; 17,33</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-29,04; 55,7</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-24,36; 137,63</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>-5,68</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9,11%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3,59%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-9,13%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 18,58</t>
+          <t>-9,42; 23,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 15,57</t>
+          <t>-7,85; 16,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 43,25</t>
+          <t>-24,06; 7,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 29,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-15,19; 63,49</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-11,72; 35,37</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-33,03; 13,64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-15,18%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>25,48%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-13,64%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,53%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 11,46</t>
+          <t>-6,37; 13,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 4,23</t>
+          <t>-21,67; 5,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,03; 90,56</t>
+          <t>-9,56; 13,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-59,1; 25,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-30,72; 138,14</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-58,09; 39,25</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-36,27; 115,74</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,01%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 8,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 2,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,82; 57,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,0; 24,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22,8%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-13,51%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-16,3%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 5,8</t>
+          <t>-2,69; 10,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 8,42</t>
+          <t>-7,8; 2,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 9,59</t>
+          <t>-10,63; 2,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 13,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-14,11; 75,18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-40,98; 25,42</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-41,4; 17,59</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-6,28%</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-2,32%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11,15%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 4,68</t>
+          <t>-9,88; 7,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 5,15</t>
+          <t>-5,46; 8,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,94; 35,03</t>
+          <t>-2,02; 15,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 35,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-14,53; 13,5</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-7,7; 13,21</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-3,4; 30,06</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,29</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-43,64%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-11,52%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-12,12%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 6,89</t>
+          <t>-11,06; 4,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,81; -2,24</t>
+          <t>-4,77; 5,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 59,22</t>
+          <t>-11,42; 4,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-60,71; -15,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-42,06; 32,76</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-23,71; 39,93</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-39,43; 23,42</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 10,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 7,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 16,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 11,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>-7,84</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-20,73%</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>52,67%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>27,96%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-45,54%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 2,27</t>
+          <t>-2,03; 9,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,32; 10,96</t>
+          <t>-14,33; -2,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-49,73; 18,46</t>
+          <t>-5,24; 6,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,38; 116,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-14,0; 98,23</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-62,98; -17,77</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-34,4; 77,2</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-17,57%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9,42%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 4,51</t>
+          <t>-7,05; 9,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 0,52</t>
+          <t>-5,1; 8,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 27,61</t>
+          <t>-2,03; 14,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 4,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-9,44; 13,87</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-6,95; 12,67</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 26,06</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-25,86%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>54,22%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-27,04%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 5,72</t>
+          <t>-11,38; 2,15</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 6,37</t>
+          <t>1,73; 11,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 9,5</t>
+          <t>-15,7; 0,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 10,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-55,34; 17,38</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>10,48; 120,32</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-50,91; 1,39</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-5,44%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1732,838 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 2,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 4,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 20,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 31,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-5,26</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-22,34%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-15,99; 4,85</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-52,0; 29,05</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-9,59; 14,21</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-14,46; 26,38</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,34</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>14,85%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-6,38; 11,35</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-33,36; 93,03</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>-3,25</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-19,92%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-1,51%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; 4,46</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-6,82; 0,11</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 3,86</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-20,25; 26,4</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-36,62; 1,07</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-25,06; 25,71</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>3,64</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 5,97</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 6,43</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 9,41</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-6,34; 9,78</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 10,13</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 17,15</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>-3,38</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>-6,19%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>10,02%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>-14,73%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 2,53</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 4,94</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-9,05; 1,57</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-26,93; 16,13</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-12,55; 34,29</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-32,94; 8,2</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P23_7-Estudios-long_bre.xlsx
+++ b/data/long_bre/P23_7-Estudios-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -708,7 +708,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -792,7 +792,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -964,7 +964,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1048,7 +1048,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1220,7 +1220,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1304,7 +1304,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1476,7 +1476,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1560,7 +1560,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
